--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,204 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shaden </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>س</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shaden </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shaden </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ك</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ص</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ل</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ج</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>shaden</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +847,132 @@
         <v>20.16</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ك</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Just Expert</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>س</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Just Expert</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>س</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Abdulkarim Almalki</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>س</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>س</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Just Expert</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
